--- a/WordReplace.Test/TestData/references.xlsx
+++ b/WordReplace.Test/TestData/references.xlsx
@@ -144,9 +144,6 @@
     <t>Article</t>
   </si>
   <si>
-    <t>Magazine</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K1:K1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,34 +635,34 @@
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>4</v>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>21</v>
@@ -703,7 +703,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="6">
         <v>245</v>
@@ -901,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3">
         <v>9</v>
@@ -927,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="3">
         <v>2008</v>
@@ -948,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -962,13 +962,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/WordReplace.Test/TestData/references.xlsx
+++ b/WordReplace.Test/TestData/references.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>URL</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Управляющий робот фондами биржевых операций</t>
   </si>
   <si>
-    <t>Юрий Анатольевич Чеботарев</t>
-  </si>
-  <si>
     <t>http://www.ozon.ru/context/detail/id/3014060/</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>978-5-49807-634-8</t>
   </si>
   <si>
-    <t>Николай Вячеславович Солабуто</t>
-  </si>
-  <si>
     <t>Relevance</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Book</t>
   </si>
   <si>
-    <t>Wyss, B. O'Neill</t>
-  </si>
-  <si>
     <t>Fundamentals of the Stock Market</t>
   </si>
   <si>
@@ -162,15 +153,9 @@
     <t>http://www.trade-bot.ru/2008/05/blesk-i-nischeta-torgovyih-robotov/</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
     <t>Site visited</t>
   </si>
   <si>
-    <t>Сергей Яшин</t>
-  </si>
-  <si>
     <t>Базовые принципы создания торговых автоматов</t>
   </si>
   <si>
@@ -190,18 +175,47 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>O'Neill Wyss B.</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Web page</t>
+  </si>
+  <si>
+    <t>Чеботарев Юрий Анатольевич</t>
+  </si>
+  <si>
+    <t>Солабуто Николай Вячеславович</t>
+  </si>
+  <si>
+    <t>Яшин Сергей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,27 +278,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -590,417 +607,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="36.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="91.85546875" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="91.85546875" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1">
+    <row r="1" spans="1:22" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1">
+    <row r="2" spans="1:22" s="6" customFormat="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="6">
+        <v>245</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="Q2" s="6">
+        <v>2009</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="6">
-        <v>245</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="6">
-        <v>2009</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>136</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>2006</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>128</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2006</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>128</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="4">
-        <v>2006</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>256</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2008</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>256</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2008</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="M6" s="3">
+        <v>336</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2010</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="3">
-        <v>336</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2010</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="3">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3">
         <v>9</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>66</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>68</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>2003</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="3" t="s">
+      <c r="S7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="3">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2008</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>40615</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="S8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>47</v>
+      <c r="V8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="3">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>66</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2006</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>52</v>
+      <c r="V9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U3" r:id="rId1"/>
-    <hyperlink ref="U4" r:id="rId2"/>
-    <hyperlink ref="U5" r:id="rId3"/>
-    <hyperlink ref="U6" r:id="rId4"/>
-    <hyperlink ref="U2" r:id="rId5"/>
-    <hyperlink ref="U8" r:id="rId6"/>
-    <hyperlink ref="U9" r:id="rId7"/>
+    <hyperlink ref="V3" r:id="rId1"/>
+    <hyperlink ref="V4" r:id="rId2"/>
+    <hyperlink ref="V5" r:id="rId3"/>
+    <hyperlink ref="V6" r:id="rId4"/>
+    <hyperlink ref="V2" r:id="rId5"/>
+    <hyperlink ref="V8" r:id="rId6"/>
+    <hyperlink ref="V9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
